--- a/teaching/traditional_assets/database/data/jordan/jordan_banks_regional.xlsx
+++ b/teaching/traditional_assets/database/data/jordan/jordan_banks_regional.xlsx
@@ -591,10 +591,10 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.149</v>
+        <v>0.133</v>
       </c>
       <c r="E2">
-        <v>0.574</v>
+        <v>0.29</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>12.4</v>
+        <v>14.9</v>
       </c>
       <c r="L2">
-        <v>0.2198581560283688</v>
+        <v>0.2564543889845095</v>
       </c>
       <c r="M2">
-        <v>10.6</v>
+        <v>0.047</v>
       </c>
       <c r="N2">
-        <v>0.05523710265763418</v>
+        <v>0.0002379746835443038</v>
       </c>
       <c r="O2">
-        <v>0.8548387096774193</v>
+        <v>0.003154362416107382</v>
       </c>
       <c r="P2">
-        <v>10.6</v>
+        <v>0.047</v>
       </c>
       <c r="Q2">
-        <v>0.05523710265763418</v>
+        <v>0.0002379746835443038</v>
       </c>
       <c r="R2">
-        <v>0.8548387096774193</v>
+        <v>0.003154362416107382</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -639,55 +639,55 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>187.5</v>
+        <v>367.9</v>
       </c>
       <c r="V2">
-        <v>0.9770713913496613</v>
+        <v>1.862784810126582</v>
       </c>
       <c r="W2">
-        <v>0.06424870466321243</v>
+        <v>0.07457457457457457</v>
       </c>
       <c r="X2">
-        <v>0.0661460482986371</v>
+        <v>0.06088784682880495</v>
       </c>
       <c r="Y2">
-        <v>-0.001897343635424667</v>
+        <v>0.01368672774576962</v>
       </c>
       <c r="Z2">
-        <v>0.6025641025641025</v>
+        <v>-0.423469387755102</v>
       </c>
       <c r="AA2">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AB2">
-        <v>0.06539044414595373</v>
+        <v>0.06009687171743465</v>
       </c>
       <c r="AC2">
-        <v>-0.06539044414595373</v>
+        <v>-0.06009687171743465</v>
       </c>
       <c r="AD2">
-        <v>11.4</v>
+        <v>12.1</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>11.4</v>
+        <v>12.1</v>
       </c>
       <c r="AG2">
-        <v>-176.1</v>
+        <v>-355.8</v>
       </c>
       <c r="AH2">
-        <v>0.05607476635514019</v>
+        <v>0.05772900763358779</v>
       </c>
       <c r="AI2">
-        <v>0.05499276410998553</v>
+        <v>0.05339805825242718</v>
       </c>
       <c r="AJ2">
-        <v>-11.14556962025316</v>
+        <v>2.247631080227417</v>
       </c>
       <c r="AK2">
-        <v>-8.893939393939389</v>
+        <v>2.518046709129512</v>
       </c>
       <c r="AL2">
         <v>0</v>
@@ -713,10 +713,10 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.149</v>
+        <v>0.133</v>
       </c>
       <c r="E3">
-        <v>0.574</v>
+        <v>0.29</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -731,28 +731,28 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>12.4</v>
+        <v>14.9</v>
       </c>
       <c r="L3">
-        <v>0.2198581560283688</v>
+        <v>0.2564543889845095</v>
       </c>
       <c r="M3">
-        <v>10.6</v>
+        <v>0.047</v>
       </c>
       <c r="N3">
-        <v>0.05523710265763418</v>
+        <v>0.0002379746835443038</v>
       </c>
       <c r="O3">
-        <v>0.8548387096774193</v>
+        <v>0.003154362416107382</v>
       </c>
       <c r="P3">
-        <v>10.6</v>
+        <v>0.047</v>
       </c>
       <c r="Q3">
-        <v>0.05523710265763418</v>
+        <v>0.0002379746835443038</v>
       </c>
       <c r="R3">
-        <v>0.8548387096774193</v>
+        <v>0.003154362416107382</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -761,55 +761,55 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>187.5</v>
+        <v>367.9</v>
       </c>
       <c r="V3">
-        <v>0.9770713913496613</v>
+        <v>1.862784810126582</v>
       </c>
       <c r="W3">
-        <v>0.06424870466321243</v>
+        <v>0.07457457457457457</v>
       </c>
       <c r="X3">
-        <v>0.0661460482986371</v>
+        <v>0.06088784682880495</v>
       </c>
       <c r="Y3">
-        <v>-0.001897343635424667</v>
+        <v>0.01368672774576962</v>
       </c>
       <c r="Z3">
-        <v>0.6025641025641025</v>
+        <v>-0.423469387755102</v>
       </c>
       <c r="AA3">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AB3">
-        <v>0.06539044414595373</v>
+        <v>0.06009687171743465</v>
       </c>
       <c r="AC3">
-        <v>-0.06539044414595373</v>
+        <v>-0.06009687171743465</v>
       </c>
       <c r="AD3">
-        <v>11.4</v>
+        <v>12.1</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>11.4</v>
+        <v>12.1</v>
       </c>
       <c r="AG3">
-        <v>-176.1</v>
+        <v>-355.8</v>
       </c>
       <c r="AH3">
-        <v>0.05607476635514019</v>
+        <v>0.05772900763358779</v>
       </c>
       <c r="AI3">
-        <v>0.05499276410998553</v>
+        <v>0.05339805825242718</v>
       </c>
       <c r="AJ3">
-        <v>-11.14556962025316</v>
+        <v>2.247631080227417</v>
       </c>
       <c r="AK3">
-        <v>-8.893939393939389</v>
+        <v>2.518046709129512</v>
       </c>
       <c r="AL3">
         <v>0</v>
